--- a/怪物设计.xlsx
+++ b/怪物设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SteamMultiplayerProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE587C-34F3-48AD-B536-2443EA89F42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7EB440-4D55-4E15-B8CB-3330BEB67636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1D08DB0A-E817-4941-8B06-01CB9CC67AD5}"/>
+    <workbookView minimized="1" xWindow="1725" yWindow="5385" windowWidth="22980" windowHeight="15345" xr2:uid="{1D08DB0A-E817-4941-8B06-01CB9CC67AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>A</t>
   </si>
@@ -918,6 +918,12 @@
   </si>
   <si>
     <t>中后期过度怪物，数量很多，很脆，但是移速特别快，体积较小，，这种怪物在这个时期应该是可以被秒杀的</t>
+  </si>
+  <si>
+    <t>BigSlime</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
   </si>
 </sst>
 </file>
@@ -1740,15 +1746,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C99A706-7F10-46E5-9F28-B27852B5D7F8}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
@@ -2127,6 +2133,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="1" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
@@ -2182,7 +2191,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="1" t="e" vm="61">
         <v>#VALUE!</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="e" vm="65">
         <v>#VALUE!</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="e" vm="69">
         <v>#VALUE!</v>
       </c>
